--- a/biology/Botanique/Molineux_(rose)/Molineux_(rose).xlsx
+++ b/biology/Botanique/Molineux_(rose)/Molineux_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Molineux' est un cultivar de rosier moderne obtenu en 1994 par le rosiériste britannique David Austin (1928-2018)[2], dans la classe shrubs. 
-Il porte le nom du stade de football du club des Wolverhampton Wanderers, le Molineux Stadium, qui se trouve en Angleterre, à Wolverhampton[2]. C'est la première création de David Austin à avoir été primée par la Royal Horticultural Society[3][source insuffisante].
+'Molineux' est un cultivar de rosier moderne obtenu en 1994 par le rosiériste britannique David Austin (1928-2018), dans la classe shrubs. 
+Il porte le nom du stade de football du club des Wolverhampton Wanderers, le Molineux Stadium, qui se trouve en Angleterre, à Wolverhampton. C'est la première création de David Austin à avoir été primée par la Royal Horticultural Society[source insuffisante].
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste de 60 à 90 cm de hauteur bien ramifié aux grandes feuilles d'un vert brillant et dont les fleurs arborent des tons jaunes très subtils. Ce sont des fleurs en forme de coupe, moyennes de 7 cm de diamètre, très doubles de 26 à 40 pétales. Elles exhalent un parfum de rosier thé aux notes de musc. Leur floraison est remontante.
-La zone de rusticité de 'Molineux' est de 5b à 10b ; il supporte donc bien les froids prononcés à −25 °C, ainsi que la chaleur. Il a besoin d'une situation ensoleillée. Il est très apprécié pour sa couleur délicate, sa forme en coupe et son parfum subtil[2].
-'Molineux' est issu d'un croisement de 'Graham Thomas' (Austin 1983) et d'un semis non nommé[4]. C'est une rose fréquemment choisie dans les grandes roseraies du monde entier[5], grâce à sa couleur jaune exceptionnelle.
+La zone de rusticité de 'Molineux' est de 5b à 10b ; il supporte donc bien les froids prononcés à −25 °C, ainsi que la chaleur. Il a besoin d'une situation ensoleillée. Il est très apprécié pour sa couleur délicate, sa forme en coupe et son parfum subtil.
+'Molineux' est issu d'un croisement de 'Graham Thomas' (Austin 1983) et d'un semis non nommé. C'est une rose fréquemment choisie dans les grandes roseraies du monde entier, grâce à sa couleur jaune exceptionnelle.
 </t>
         </is>
       </c>
@@ -546,13 +560,15 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Award of Garden Merit (RHS/RNRS). Royal Horticultural Society Show. 2001.
 Médaille de bronze. Australian National Rose Trials. 1999.
-Médaille d'or. Glasgow Rose Trials. 1999[2].
+Médaille d'or. Glasgow Rose Trials. 1999.
 Médaille d'or, the President's Trophy. Best New Rose of the Year.
-Henry Edland Medal. Best Scented Rose. Royal National Rose Society Trials[1].</t>
+Henry Edland Medal. Best Scented Rose. Royal National Rose Society Trials.</t>
         </is>
       </c>
     </row>
